--- a/tests/tableau_test_supply_generator.xlsx
+++ b/tests/tableau_test_supply_generator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxime/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxime/Documents/GitHub/Dev2-Projet-Fourmis-2TL2-3/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1409EF16-075D-4D48-802B-917DBBA3675D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36144180-4AE2-9D48-A552-B4D1231C02FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="800" windowWidth="28040" windowHeight="17380" xr2:uid="{E0784F58-89CD-2F4B-9B7E-D89633F236F3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="63">
   <si>
     <t>Nom : Malpica Arana</t>
   </si>
@@ -201,13 +201,37 @@
   </si>
   <si>
     <t>Vérifier</t>
+  </si>
+  <si>
+    <t>NotEqual</t>
+  </si>
+  <si>
+    <t>"test"</t>
+  </si>
+  <si>
+    <t>"12"</t>
+  </si>
+  <si>
+    <t>nbr_collect must be an integer.</t>
+  </si>
+  <si>
+    <t>2.444</t>
+  </si>
+  <si>
+    <t>32.122</t>
+  </si>
+  <si>
+    <t>nbr_collect must be greater than or equal to 1 for all food types.</t>
+  </si>
+  <si>
+    <t>test_add_food (random values)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,6 +243,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -261,24 +291,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA77DAE7-9359-B147-8C10-5492DB191A96}">
-  <dimension ref="B2:F60"/>
+  <dimension ref="B2:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="67" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D43" sqref="D42:D43"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,722 +730,860 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
+      <c r="F34" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="5"/>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="5"/>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="5"/>
+      <c r="C46" s="3">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="5"/>
+      <c r="C49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="5"/>
+      <c r="C50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="5"/>
+      <c r="C51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="5"/>
+      <c r="C52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="5"/>
+      <c r="C53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="5"/>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="5"/>
+      <c r="C55" s="3">
+        <v>-12</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4" t="s">
+      <c r="D57" s="3">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="5"/>
+      <c r="C58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="3">
+        <v>18</v>
+      </c>
+      <c r="E58" s="3">
+        <v>18</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="5"/>
+      <c r="C59" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="5"/>
+      <c r="C60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="3">
+        <v>11</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="3">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="5"/>
+      <c r="C63" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="5"/>
+      <c r="C64" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="5"/>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="5"/>
+      <c r="C68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3</v>
-      </c>
-      <c r="E47" s="5">
-        <v>3</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="5">
-        <v>18</v>
-      </c>
-      <c r="E48" s="5">
-        <v>18</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="C49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="3"/>
-      <c r="C50" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="5">
-        <v>11</v>
-      </c>
-      <c r="E50" s="5">
-        <v>11</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="D68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="5"/>
+      <c r="C69" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="5">
-        <v>4</v>
-      </c>
-      <c r="E52" s="5">
-        <v>4</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="5">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5">
-        <v>0</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="5">
-        <v>2</v>
-      </c>
-      <c r="E54" s="5">
-        <v>2</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="3"/>
-      <c r="C55" s="4" t="s">
+      <c r="D69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="5"/>
+      <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="3"/>
-      <c r="C58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-      <c r="C59" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="3"/>
-      <c r="C60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="D70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F70" s="4" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B52:B55"/>
+  <mergeCells count="9">
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B48:B55"/>
     <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B67:B70"/>
     <mergeCell ref="B9:B29"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B43:B46"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>